--- a/NIFTY/program/Financial parameter.xlsx
+++ b/NIFTY/program/Financial parameter.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>liquidity ratio</t>
   </si>
@@ -51,9 +51,6 @@
     <t>quick ratio</t>
   </si>
   <si>
-    <t>Absolute liquidity ratio</t>
-  </si>
-  <si>
     <t>cash ratio</t>
   </si>
   <si>
@@ -127,6 +124,39 @@
   </si>
   <si>
     <t>Efficiency ratio</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>(current assets - inventory)/current liabilities</t>
+  </si>
+  <si>
+    <t>current assets/current liabilities</t>
+  </si>
+  <si>
+    <t>cash and cash equivalent / current liabilities</t>
+  </si>
+  <si>
+    <t>Discriptions</t>
+  </si>
+  <si>
+    <t>The acid test ratio shows whether a company has enough short-term assets to cover its immediate liabilities without selling inventory. The higher the acid test ratio, the safer a position the company is in.</t>
+  </si>
+  <si>
+    <t>It further refines both the current ratio and the quick ratio by measuring the amount of cash and cash equivalents there are in current assets to cover current liabilities</t>
+  </si>
+  <si>
+    <t>The inventory turnover shows how many times a company’s inventory is sold and replaced over a given period.</t>
+  </si>
+  <si>
+    <t>sales/inventory</t>
   </si>
 </sst>
 </file>
@@ -162,8 +192,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,134 +480,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
